--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,57 +192,43 @@
     <t>请输入验证码</t>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testcase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa4</t>
-  </si>
-  <si>
-    <t>aaa2</t>
-  </si>
-  <si>
-    <t>aaa3</t>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行-绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡重复-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空-绑卡失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,20 +585,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,247 +606,232 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
         <v>13135642162</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13135642162</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1">
-        <v>13135642162</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
         <v>13135642162</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>13135642162</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="2415"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,14 +234,30 @@
   </si>
   <si>
     <t>验证码为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,17 +609,29 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="11" max="11" width="52.83203125" customWidth="1"/>
+    <col min="12" max="12" width="40.1640625" customWidth="1"/>
+    <col min="13" max="13" width="39.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="51.1640625" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" customWidth="1"/>
+    <col min="17" max="17" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -667,8 +700,8 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
-        <v>13135642162</v>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -713,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -723,8 +756,8 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="1">
-        <v>13135642162</v>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -748,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -758,8 +791,8 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1">
-        <v>13135642162</v>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -781,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -791,8 +824,8 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1">
-        <v>13135642162</v>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -850,9 +883,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,14 +233,30 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,38 +607,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.375" customWidth="1"/>
+    <col min="6" max="6" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="38.625" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" customWidth="1"/>
-    <col min="12" max="12" width="40.1640625" customWidth="1"/>
-    <col min="13" max="13" width="39.83203125" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="51.1640625" customWidth="1"/>
-    <col min="16" max="16" width="32.33203125" customWidth="1"/>
-    <col min="17" max="17" width="56.33203125" customWidth="1"/>
+    <col min="11" max="11" width="52.875" customWidth="1"/>
+    <col min="12" max="12" width="40.125" customWidth="1"/>
+    <col min="13" max="13" width="39.875" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="51.125" customWidth="1"/>
+    <col min="16" max="16" width="32.375" customWidth="1"/>
+    <col min="17" max="17" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -654,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -678,45 +677,45 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -725,144 +724,186 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>7</v>
@@ -883,9 +924,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,46 +123,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +176,6 @@
     <t>请输入验证码</t>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行-绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银行卡重复-绑卡失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +237,126 @@
   </si>
   <si>
     <t>${BankCardUtils.getUsedBankCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621485021040)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622696779515)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622632349194)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622568683546)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622298316429)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622827469345)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(620061511669)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622660633366)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622262406933)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621691506392)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622521071652)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622908192090)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621799417365)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑卡成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -635,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -680,30 +788,30 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -724,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>25</v>
@@ -733,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>7</v>
@@ -747,19 +855,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -786,16 +894,16 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
-        <v>38</v>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
@@ -803,19 +911,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -842,14 +950,16 @@
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" t="s">
-        <v>39</v>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
@@ -857,55 +967,837 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -716,7 +716,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="103">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identity_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +350,65 @@
   <si>
     <t>绑卡成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白2</t>
+  </si>
+  <si>
+    <t>李白3</t>
+  </si>
+  <si>
+    <t>李白4</t>
+  </si>
+  <si>
+    <t>李白5</t>
+  </si>
+  <si>
+    <t>李白6</t>
+  </si>
+  <si>
+    <t>李白7</t>
+  </si>
+  <si>
+    <t>李白8</t>
+  </si>
+  <si>
+    <t>李白9</t>
+  </si>
+  <si>
+    <t>李白10</t>
+  </si>
+  <si>
+    <t>李白11</t>
+  </si>
+  <si>
+    <t>李白12</t>
+  </si>
+  <si>
+    <t>李白13</t>
+  </si>
+  <si>
+    <t>李白14</t>
+  </si>
+  <si>
+    <t>李白15</t>
+  </si>
+  <si>
+    <t>李白16</t>
+  </si>
+  <si>
+    <t>李白17</t>
+  </si>
+  <si>
+    <t>李白18</t>
   </si>
 </sst>
 </file>
@@ -715,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -743,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -761,16 +812,16 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -785,69 +836,69 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>7</v>
@@ -855,55 +906,55 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
@@ -911,55 +962,55 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
@@ -967,55 +1018,55 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>7</v>
@@ -1023,55 +1074,55 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>7</v>
@@ -1079,55 +1130,55 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>7</v>
@@ -1135,55 +1186,55 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>7</v>
@@ -1191,55 +1242,55 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>7</v>
@@ -1247,55 +1298,55 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>7</v>
@@ -1303,55 +1354,55 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>7</v>
@@ -1359,55 +1410,55 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>7</v>
@@ -1415,55 +1466,55 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>7</v>
@@ -1471,55 +1522,55 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>7</v>
@@ -1527,55 +1578,55 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>7</v>
@@ -1583,55 +1634,55 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>7</v>
@@ -1639,55 +1690,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>7</v>
@@ -1695,53 +1746,53 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>7</v>
@@ -1749,53 +1800,53 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>7</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="104">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,19 +119,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡重复-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑卡成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,124 +280,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-  </si>
-  <si>
-    <t>请输入验证码</t>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡重复-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(621485021040)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622696779515)}</t>
+    <t>李白1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白2</t>
+  </si>
+  <si>
+    <t>李白3</t>
+  </si>
+  <si>
+    <t>李白4</t>
+  </si>
+  <si>
+    <t>李白5</t>
+  </si>
+  <si>
+    <t>李白6</t>
+  </si>
+  <si>
+    <t>李白7</t>
+  </si>
+  <si>
+    <t>李白8</t>
+  </si>
+  <si>
+    <t>李白9</t>
+  </si>
+  <si>
+    <t>李白10</t>
+  </si>
+  <si>
+    <t>李白11</t>
+  </si>
+  <si>
+    <t>李白12</t>
+  </si>
+  <si>
+    <t>李白13</t>
+  </si>
+  <si>
+    <t>李白14</t>
+  </si>
+  <si>
+    <t>李白15</t>
+  </si>
+  <si>
+    <t>李白16</t>
+  </si>
+  <si>
+    <t>李白17</t>
+  </si>
+  <si>
+    <t>李白18</t>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(建设银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(邮政储蓄)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(兴业银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(工商银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(浦发银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(民生银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(交通银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(光大银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(招商银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(中国银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(农业银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(平安银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${IdBankGenerator.getUnUsedBankCard(广发银行)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,151 +403,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622632349194)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622568683546)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622298316429)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622827469345)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(620061511669)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622660633366)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622262406933)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(621691506392)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622521071652)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622908192090)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(621799417365)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白2</t>
-  </si>
-  <si>
-    <t>李白3</t>
-  </si>
-  <si>
-    <t>李白4</t>
-  </si>
-  <si>
-    <t>李白5</t>
-  </si>
-  <si>
-    <t>李白6</t>
-  </si>
-  <si>
-    <t>李白7</t>
-  </si>
-  <si>
-    <t>李白8</t>
-  </si>
-  <si>
-    <t>李白9</t>
-  </si>
-  <si>
-    <t>李白10</t>
-  </si>
-  <si>
-    <t>李白11</t>
-  </si>
-  <si>
-    <t>李白12</t>
-  </si>
-  <si>
-    <t>李白13</t>
-  </si>
-  <si>
-    <t>李白14</t>
-  </si>
-  <si>
-    <t>李白15</t>
-  </si>
-  <si>
-    <t>李白16</t>
-  </si>
-  <si>
-    <t>李白17</t>
-  </si>
-  <si>
-    <t>李白18</t>
+    <t>'${IdBankGenerator.getUnUsedBankCard(华夏银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(中信银行)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -766,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -794,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -839,30 +843,30 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -877,10 +881,10 @@
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
@@ -892,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>7</v>
@@ -906,19 +910,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -933,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -945,16 +949,16 @@
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
@@ -962,19 +966,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -989,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -1001,16 +1005,16 @@
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
@@ -1018,19 +1022,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -1045,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -1057,16 +1061,16 @@
         <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>7</v>
@@ -1074,19 +1078,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -1101,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -1113,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>7</v>
@@ -1130,19 +1134,19 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -1157,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -1169,16 +1173,16 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>7</v>
@@ -1186,19 +1190,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -1213,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1225,16 +1229,16 @@
         <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>7</v>
@@ -1242,19 +1246,19 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -1269,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1281,16 +1285,16 @@
         <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>7</v>
@@ -1298,19 +1302,19 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -1325,7 +1329,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1337,16 +1341,16 @@
         <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>7</v>
@@ -1354,19 +1358,19 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -1381,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
@@ -1393,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>7</v>
@@ -1410,19 +1414,19 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -1437,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -1449,16 +1453,16 @@
         <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>7</v>
@@ -1466,19 +1470,19 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
@@ -1493,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -1505,16 +1509,16 @@
         <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>7</v>
@@ -1522,19 +1526,19 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
@@ -1549,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -1561,16 +1565,16 @@
         <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>7</v>
@@ -1578,19 +1582,19 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
@@ -1605,7 +1609,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -1617,16 +1621,16 @@
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>7</v>
@@ -1634,19 +1638,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
@@ -1661,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
@@ -1673,16 +1677,16 @@
         <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>7</v>
@@ -1690,19 +1694,19 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -1717,7 +1721,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
@@ -1732,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>7</v>
@@ -1746,19 +1750,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -1773,7 +1777,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>17</v>
@@ -1792,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>7</v>
@@ -1800,53 +1804,53 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>7</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="106">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,186 +228,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白2</t>
+  </si>
+  <si>
+    <t>李白3</t>
+  </si>
+  <si>
+    <t>李白4</t>
+  </si>
+  <si>
+    <t>李白5</t>
+  </si>
+  <si>
+    <t>李白6</t>
+  </si>
+  <si>
+    <t>李白7</t>
+  </si>
+  <si>
+    <t>李白8</t>
+  </si>
+  <si>
+    <t>李白9</t>
+  </si>
+  <si>
+    <t>李白10</t>
+  </si>
+  <si>
+    <t>李白11</t>
+  </si>
+  <si>
+    <t>李白12</t>
+  </si>
+  <si>
+    <t>李白13</t>
+  </si>
+  <si>
+    <t>李白14</t>
+  </si>
+  <si>
+    <t>李白15</t>
+  </si>
+  <si>
+    <t>李白16</t>
+  </si>
+  <si>
+    <t>李白17</t>
+  </si>
+  <si>
+    <t>李白18</t>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白2</t>
-  </si>
-  <si>
-    <t>李白3</t>
-  </si>
-  <si>
-    <t>李白4</t>
-  </si>
-  <si>
-    <t>李白5</t>
-  </si>
-  <si>
-    <t>李白6</t>
-  </si>
-  <si>
-    <t>李白7</t>
-  </si>
-  <si>
-    <t>李白8</t>
-  </si>
-  <si>
-    <t>李白9</t>
-  </si>
-  <si>
-    <t>李白10</t>
-  </si>
-  <si>
-    <t>李白11</t>
-  </si>
-  <si>
-    <t>李白12</t>
-  </si>
-  <si>
-    <t>李白13</t>
-  </si>
-  <si>
-    <t>李白14</t>
-  </si>
-  <si>
-    <t>李白15</t>
-  </si>
-  <si>
-    <t>李白16</t>
-  </si>
-  <si>
-    <t>李白17</t>
-  </si>
-  <si>
-    <t>李白18</t>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(建设银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(邮政储蓄)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(兴业银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(工商银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(浦发银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(民生银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(交通银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(光大银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(招商银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(中国银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(农业银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(平安银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(广发银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'${IdBankGenerator.getUnUsedBankCard(华夏银行)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(中信银行)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,14 +861,14 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>45</v>
@@ -881,22 +889,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>21</v>
@@ -909,14 +917,14 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>53</v>
+      <c r="A3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -937,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -949,10 +957,10 @@
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>21</v>
@@ -965,14 +973,14 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>53</v>
+      <c r="A4" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
@@ -993,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -1005,10 +1013,10 @@
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>21</v>
@@ -1021,14 +1029,14 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>103</v>
+      <c r="A5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
@@ -1049,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -1061,10 +1069,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>21</v>
@@ -1077,14 +1085,14 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>103</v>
+      <c r="A6" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>45</v>
@@ -1105,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -1117,10 +1125,10 @@
         <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>21</v>
@@ -1133,14 +1141,14 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>103</v>
+      <c r="A7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
@@ -1161,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -1173,10 +1181,10 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>21</v>
@@ -1189,14 +1197,14 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>53</v>
+      <c r="A8" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -1217,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1229,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>95</v>
@@ -1245,14 +1253,14 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>53</v>
+      <c r="A9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
@@ -1273,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1285,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>21</v>
@@ -1301,14 +1309,14 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>53</v>
+      <c r="A10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -1329,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1341,10 +1349,10 @@
         <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>21</v>
@@ -1357,14 +1365,14 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>53</v>
+      <c r="A11" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -1385,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
@@ -1397,10 +1405,10 @@
         <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>21</v>
@@ -1413,14 +1421,14 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>53</v>
+      <c r="A12" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -1441,7 +1449,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -1453,10 +1461,10 @@
         <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>21</v>
@@ -1469,14 +1477,14 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>53</v>
+      <c r="A13" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
@@ -1497,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -1509,10 +1517,10 @@
         <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>21</v>
@@ -1525,14 +1533,14 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>103</v>
+      <c r="A14" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -1553,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -1565,10 +1573,10 @@
         <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>21</v>
@@ -1581,14 +1589,14 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>103</v>
+      <c r="A15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -1609,7 +1617,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -1621,10 +1629,10 @@
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>21</v>
@@ -1637,14 +1645,14 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -1665,7 +1673,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
@@ -1677,10 +1685,10 @@
         <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>21</v>
@@ -1693,8 +1701,8 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1721,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
@@ -1749,8 +1757,8 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>1</v>
+      <c r="A18" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1777,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>17</v>
@@ -1803,8 +1811,8 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>1</v>
+      <c r="A19" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -1831,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>28</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,10 +416,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +775,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1030,7 +1026,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1086,7 +1082,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1142,7 +1138,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -1534,7 +1530,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -1590,7 +1586,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1646,10 +1642,10 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -1702,7 +1698,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1758,7 +1754,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="146">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,18 +172,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反例-绑卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行卡重复-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银行卡为空-绑卡失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getUsedBankCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工商银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +388,180 @@
   </si>
   <si>
     <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-重复绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白19</t>
+  </si>
+  <si>
+    <t>李白20</t>
+  </si>
+  <si>
+    <t>李白21</t>
+  </si>
+  <si>
+    <t>李白22</t>
+  </si>
+  <si>
+    <t>李白23</t>
+  </si>
+  <si>
+    <t>李白24</t>
+  </si>
+  <si>
+    <t>李白25</t>
+  </si>
+  <si>
+    <t>李白26</t>
+  </si>
+  <si>
+    <t>李白27</t>
+  </si>
+  <si>
+    <t>李白28</t>
+  </si>
+  <si>
+    <t>李白29</t>
+  </si>
+  <si>
+    <t>李白30</t>
+  </si>
+  <si>
+    <t>李白31</t>
+  </si>
+  <si>
+    <t>李白32</t>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(7)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,29 +922,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.375" customWidth="1"/>
-    <col min="6" max="6" width="38.375" customWidth="1"/>
-    <col min="7" max="7" width="38.625" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="11" max="11" width="52.875" customWidth="1"/>
-    <col min="12" max="12" width="40.125" customWidth="1"/>
-    <col min="13" max="13" width="39.875" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="51.125" customWidth="1"/>
-    <col min="16" max="16" width="32.375" customWidth="1"/>
-    <col min="17" max="17" width="56.375" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -802,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -847,31 +999,31 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
@@ -885,28 +1037,28 @@
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>7</v>
@@ -914,20 +1066,20 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
@@ -941,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -953,16 +1105,16 @@
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
@@ -970,20 +1122,20 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
@@ -997,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -1009,16 +1161,16 @@
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
@@ -1029,17 +1181,17 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -1065,16 +1217,16 @@
         <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>7</v>
@@ -1082,35 +1234,35 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,16 +1273,16 @@
         <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>7</v>
@@ -1141,17 +1293,17 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -1177,16 +1329,16 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>7</v>
@@ -1194,20 +1346,20 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1233,16 +1385,16 @@
         <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>7</v>
@@ -1250,55 +1402,55 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>7</v>
@@ -1306,20 +1458,20 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1485,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1345,16 +1497,16 @@
         <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>7</v>
@@ -1362,20 +1514,20 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
@@ -1401,16 +1553,16 @@
         <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>7</v>
@@ -1418,20 +1570,20 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -1457,16 +1609,16 @@
         <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>7</v>
@@ -1474,20 +1626,20 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -1513,16 +1665,16 @@
         <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>7</v>
@@ -1533,17 +1685,17 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -1569,16 +1721,16 @@
         <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>7</v>
@@ -1589,17 +1741,17 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1613,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -1625,16 +1777,16 @@
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>7</v>
@@ -1642,20 +1794,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1821,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
@@ -1681,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>7</v>
@@ -1698,20 +1850,20 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1725,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
@@ -1740,13 +1892,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>7</v>
@@ -1754,19 +1906,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -1781,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>17</v>
@@ -1793,14 +1945,16 @@
         <v>24</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>7</v>
@@ -1808,55 +1962,837 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="O33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCard.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,538 +35,539 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验金额、支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankcard_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空-绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白2</t>
+  </si>
+  <si>
+    <t>李白3</t>
+  </si>
+  <si>
+    <t>李白4</t>
+  </si>
+  <si>
+    <t>李白5</t>
+  </si>
+  <si>
+    <t>李白6</t>
+  </si>
+  <si>
+    <t>李白7</t>
+  </si>
+  <si>
+    <t>李白8</t>
+  </si>
+  <si>
+    <t>李白9</t>
+  </si>
+  <si>
+    <t>李白10</t>
+  </si>
+  <si>
+    <t>李白11</t>
+  </si>
+  <si>
+    <t>李白12</t>
+  </si>
+  <si>
+    <t>李白13</t>
+  </si>
+  <si>
+    <t>李白14</t>
+  </si>
+  <si>
+    <t>李白15</t>
+  </si>
+  <si>
+    <t>李白16</t>
+  </si>
+  <si>
+    <t>李白17</t>
+  </si>
+  <si>
+    <t>李白18</t>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-重复绑卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白19</t>
+  </si>
+  <si>
+    <t>李白20</t>
+  </si>
+  <si>
+    <t>李白21</t>
+  </si>
+  <si>
+    <t>李白22</t>
+  </si>
+  <si>
+    <t>李白23</t>
+  </si>
+  <si>
+    <t>李白24</t>
+  </si>
+  <si>
+    <t>李白25</t>
+  </si>
+  <si>
+    <t>李白26</t>
+  </si>
+  <si>
+    <t>李白27</t>
+  </si>
+  <si>
+    <t>李白28</t>
+  </si>
+  <si>
+    <t>李白29</t>
+  </si>
+  <si>
+    <t>李白30</t>
+  </si>
+  <si>
+    <t>李白31</t>
+  </si>
+  <si>
+    <t>李白32</t>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUsedBankCard(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mobile</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>bank_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankcard_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-  </si>
-  <si>
-    <t>请输入验证码</t>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白2</t>
-  </si>
-  <si>
-    <t>李白3</t>
-  </si>
-  <si>
-    <t>李白4</t>
-  </si>
-  <si>
-    <t>李白5</t>
-  </si>
-  <si>
-    <t>李白6</t>
-  </si>
-  <si>
-    <t>李白7</t>
-  </si>
-  <si>
-    <t>李白8</t>
-  </si>
-  <si>
-    <t>李白9</t>
-  </si>
-  <si>
-    <t>李白10</t>
-  </si>
-  <si>
-    <t>李白11</t>
-  </si>
-  <si>
-    <t>李白12</t>
-  </si>
-  <si>
-    <t>李白13</t>
-  </si>
-  <si>
-    <t>李白14</t>
-  </si>
-  <si>
-    <t>李白15</t>
-  </si>
-  <si>
-    <t>李白16</t>
-  </si>
-  <si>
-    <t>李白17</t>
-  </si>
-  <si>
-    <t>李白18</t>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-重复绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白19</t>
-  </si>
-  <si>
-    <t>李白20</t>
-  </si>
-  <si>
-    <t>李白21</t>
-  </si>
-  <si>
-    <t>李白22</t>
-  </si>
-  <si>
-    <t>李白23</t>
-  </si>
-  <si>
-    <t>李白24</t>
-  </si>
-  <si>
-    <t>李白25</t>
-  </si>
-  <si>
-    <t>李白26</t>
-  </si>
-  <si>
-    <t>李白27</t>
-  </si>
-  <si>
-    <t>李白28</t>
-  </si>
-  <si>
-    <t>李白29</t>
-  </si>
-  <si>
-    <t>李白30</t>
-  </si>
-  <si>
-    <t>李白31</t>
-  </si>
-  <si>
-    <t>李白32</t>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -954,226 +956,226 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
       <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1181,111 +1183,111 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1293,391 +1295,391 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1685,55 +1687,55 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1741,111 +1743,111 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1853,167 +1855,167 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2021,111 +2023,111 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2133,391 +2135,391 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2525,55 +2527,55 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2581,219 +2583,219 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2826,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
